--- a/data/trans_dic/P7B_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 16 años</t>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,81%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>33,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,63; 36,84</t>
+          <t>24,71; 40,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,74; 38,65</t>
+          <t>23,59; 39,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,86; 37,11</t>
+          <t>23,67; 38,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,97; 37,77</t>
+          <t>21,57; 37,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,29; 38,13</t>
+          <t>31,66; 45,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,75; 39,17</t>
+          <t>31,77; 45,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,32; 39,29</t>
+          <t>30,99; 44,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,55; 37,46</t>
+          <t>29,52; 43,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,14; 35,79</t>
+          <t>30,5; 40,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,13; 37,27</t>
+          <t>29,41; 40,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,58; 36,45</t>
+          <t>28,99; 39,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,54; 35,64</t>
+          <t>27,38; 38,26</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>48,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>47,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>39,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,16; 39,89</t>
+          <t>21,29; 37,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,04; 46,17</t>
+          <t>21,76; 38,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,0; 41,23</t>
+          <t>21,5; 38,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,76; 41,27</t>
+          <t>22,73; 40,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,27; 48,68</t>
+          <t>40,61; 55,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,66; 51,29</t>
+          <t>41,45; 56,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,43; 49,78</t>
+          <t>39,47; 56,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,55; 49,34</t>
+          <t>39,18; 56,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,98; 42,92</t>
+          <t>33,67; 45,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35,92; 46,09</t>
+          <t>34,56; 46,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,09; 43,67</t>
+          <t>33,46; 44,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,66; 43,17</t>
+          <t>33,64; 45,37</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>40,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>42,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,11; 54,2</t>
+          <t>14,65; 74,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 55,25</t>
+          <t>14,75; 75,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 47,63</t>
+          <t>14,21; 72,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 52,8</t>
+          <t>16,42; 75,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,43; 53,3</t>
+          <t>25,87; 57,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,89; 55,02</t>
+          <t>26,45; 58,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,56; 55,68</t>
+          <t>29,02; 61,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,71; 53,07</t>
+          <t>26,58; 58,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,96; 48,07</t>
+          <t>26,24; 58,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,66; 49,43</t>
+          <t>26,51; 59,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,89; 45,78</t>
+          <t>27,14; 58,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,62; 47,06</t>
+          <t>28,33; 62,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>36,78%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,45; 35,91</t>
+          <t>26,8; 39,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,01; 38,72</t>
+          <t>25,82; 39,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,46; 36,71</t>
+          <t>25,67; 38,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,87; 36,77</t>
+          <t>25,22; 38,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,75; 41,14</t>
+          <t>36,9; 47,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,42; 42,71</t>
+          <t>37,77; 48,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,22; 42,31</t>
+          <t>37,89; 47,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,53; 41,03</t>
+          <t>36,73; 46,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,51</t>
+          <t>33,76; 41,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,24; 39,53</t>
+          <t>33,87; 42,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,28; 38,12</t>
+          <t>33,46; 41,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,24; 37,59</t>
+          <t>32,78; 40,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,81%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>118760</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>133324</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>112953</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>111985</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>166489</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>195837</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>159549</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>148762</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>285249</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>329161</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>272502</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>260747</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>90361; 148267</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>100908; 167514</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>85745; 141162</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>81744; 140368</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>137810; 196297</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>161668; 230982</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>130499; 188027</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>120282; 175406</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>244354; 327208</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>275422; 378632</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>227117; 311680</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>215327; 300884</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89492</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>108931</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>94831</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100918</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>167019</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>207780</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>159393</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>156158</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>256511</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>316711</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>254224</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>257076</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64881; 114449</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>78214; 139958</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>68428; 121653</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73319; 129322</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>142183; 193788</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>176299; 239176</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>130009; 185900</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>127908; 182873</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>220462; 295619</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>271171; 362477</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>216745; 290924</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>218324; 294493</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34481</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42302</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31254</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>37061</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33740</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41668</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36125</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34929</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>68221</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>83970</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67378</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>71990</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12423; 62983</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15013; 76844</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11314; 57850</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14057; 64670</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21371; 47685</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26754; 58942</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23664; 49774</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21943; 48598</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43938; 98180</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53797; 120581</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>43732; 95065</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47635; 104865</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>242733</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>284557</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>239038</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>249965</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>367248</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>445284</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>355067</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>339848</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>609981</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>729841</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>594104</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>589813</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>202452; 295680</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>229500; 347840</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>195154; 289818</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>198546; 304973</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>320296; 408264</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>391037; 496985</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>315239; 395921</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>299928; 381222</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>547964; 674509</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>651738; 809093</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>532759; 655838</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>525744; 656738</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>